--- a/foreign_matter_classification_2023_05_09/documentation/光伏板异物分类 2023-05-04.xlsx
+++ b/foreign_matter_classification_2023_05_09/documentation/光伏板异物分类 2023-05-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>光伏板异物分类</t>
   </si>
@@ -101,16 +101,25 @@
     <t>使用 tqdm 显示模型训练过程。</t>
   </si>
   <si>
-    <t>增加程序，实现 tensorboard 观测训练过程。</t>
-  </si>
-  <si>
-    <t>以下部分的内容待完善。</t>
+    <t>增加 tensorboard 程序，监测训练过程。</t>
+  </si>
+  <si>
+    <t>增加数据增强程序，提高分类的准确度。</t>
+  </si>
+  <si>
+    <t>创建简单的光伏板异物数据集，从简单场景开始训练。</t>
+  </si>
+  <si>
+    <t>完善程序，增加程序文档 docstrings。</t>
+  </si>
+  <si>
+    <t>以下部分的内容逐步添加。</t>
   </si>
   <si>
     <t>数据集</t>
   </si>
   <si>
-    <t>数量</t>
+    <t>图片数量</t>
   </si>
   <si>
     <t>异物类型</t>
@@ -119,19 +128,133 @@
     <t>形状</t>
   </si>
   <si>
-    <t>大小</t>
+    <t>圆柱体</t>
+  </si>
+  <si>
+    <t>立方体</t>
+  </si>
+  <si>
+    <t>长方体</t>
+  </si>
+  <si>
+    <t>片体</t>
+  </si>
+  <si>
+    <t>异形体</t>
+  </si>
+  <si>
+    <t>球体</t>
+  </si>
+  <si>
+    <t>代表 1</t>
+  </si>
+  <si>
+    <t>可乐罐</t>
+  </si>
+  <si>
+    <t>书籍</t>
+  </si>
+  <si>
+    <t>泡沫盒</t>
+  </si>
+  <si>
+    <t>纸张</t>
+  </si>
+  <si>
+    <t>手套</t>
+  </si>
+  <si>
+    <t>橘子</t>
+  </si>
+  <si>
+    <t>代表 2</t>
+  </si>
+  <si>
+    <t>胶带</t>
+  </si>
+  <si>
+    <t>笔记本</t>
+  </si>
+  <si>
+    <t>衣服/布</t>
+  </si>
+  <si>
+    <t>香蕉</t>
+  </si>
+  <si>
+    <t>代表 3</t>
+  </si>
+  <si>
+    <t>胶水瓶</t>
   </si>
   <si>
     <t>颜色</t>
   </si>
   <si>
-    <t>2 种情形，异物在光伏板内和光伏板外。</t>
+    <t>白</t>
+  </si>
+  <si>
+    <t>红</t>
+  </si>
+  <si>
+    <t>橙</t>
+  </si>
+  <si>
+    <t>黄</t>
+  </si>
+  <si>
+    <t>透明</t>
+  </si>
+  <si>
+    <t>绿</t>
+  </si>
+  <si>
+    <t>蓝</t>
+  </si>
+  <si>
+    <t>靛</t>
+  </si>
+  <si>
+    <t>紫</t>
+  </si>
+  <si>
+    <t>小物体</t>
+  </si>
+  <si>
+    <t>钥匙</t>
+  </si>
+  <si>
+    <t>笔</t>
   </si>
   <si>
     <t>多种场景，难度递增。</t>
   </si>
   <si>
-    <t>先室内单个光伏板</t>
+    <t>室内单个光伏板</t>
+  </si>
+  <si>
+    <t>异物不在光伏板上(关键)</t>
+  </si>
+  <si>
+    <t>异物在光伏板短边</t>
+  </si>
+  <si>
+    <t>异物靠近光伏板短边</t>
+  </si>
+  <si>
+    <t>异物在光伏板长边</t>
+  </si>
+  <si>
+    <t>异物靠近光伏板长边</t>
+  </si>
+  <si>
+    <t>异物在光伏板中心</t>
+  </si>
+  <si>
+    <t>没有光伏板，只有异物 ???</t>
+  </si>
+  <si>
+    <t>光伏板上有清洗机</t>
   </si>
   <si>
     <t>室内多个光伏板</t>
@@ -149,13 +272,25 @@
     <t>优化器</t>
   </si>
   <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
     <t>数据增强</t>
   </si>
   <si>
+    <t>颜色变换</t>
+  </si>
+  <si>
+    <t>角度变换</t>
+  </si>
+  <si>
     <t>演示效果</t>
   </si>
   <si>
-    <t>使用猫狗数据集进行演示的效果</t>
+    <t>室内单排光伏板的效果</t>
   </si>
 </sst>
 </file>
@@ -164,11 +299,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="0.0%"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -202,6 +337,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -217,8 +373,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,98 +459,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,187 +492,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,6 +717,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -599,50 +743,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,147 +776,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -826,7 +961,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -845,10 +980,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1">
@@ -857,14 +992,35 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -874,6 +1030,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -941,19 +1100,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>74930</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>45085</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>62230</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>440690</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504190</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>102235</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -966,8 +1125,50 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1537970" y="8953500"/>
-          <a:ext cx="4023360" cy="2987040"/>
+          <a:off x="1508125" y="12955270"/>
+          <a:ext cx="2653665" cy="3369945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>730885</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>114935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4388485" y="12893040"/>
+          <a:ext cx="2637155" cy="3444875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1241,7 +1442,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
@@ -1342,14 +1543,14 @@
       <c r="G10" s="4">
         <v>46.7</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
     </row>
     <row r="11" spans="3:13">
       <c r="C11" s="6">
@@ -1365,14 +1566,14 @@
       <c r="G11" s="4">
         <v>94.83</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
     </row>
     <row r="12" spans="3:13">
       <c r="C12" s="7">
@@ -1434,14 +1635,14 @@
       <c r="G14" s="3">
         <v>362</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
     </row>
     <row r="15" spans="3:13">
       <c r="C15" s="6">
@@ -1522,7 +1723,7 @@
       <c r="C23" s="10">
         <v>4.1</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1530,7 +1731,7 @@
       <c r="C24" s="10">
         <v>4.2</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1538,139 +1739,401 @@
       <c r="C25" s="10">
         <v>4.3</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="3:4">
-      <c r="C26" s="10">
+      <c r="C26" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" s="14">
         <v>4.4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4">
-      <c r="C27" s="10">
-        <v>4.5</v>
       </c>
       <c r="D27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="3:3">
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29" spans="3:3">
-      <c r="C29" s="9"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11" t="s">
+    <row r="28" spans="3:4">
+      <c r="C28" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="D28" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="11"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" s="14">
+        <v>4.6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" s="14">
+        <v>4.7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="14"/>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="14"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="14"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
         <v>4</v>
       </c>
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33">
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37">
         <v>4.1</v>
       </c>
-      <c r="C33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34">
+      <c r="C37" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="16">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39">
         <v>4.2</v>
       </c>
-      <c r="C34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4">
-      <c r="D35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4">
-      <c r="D36" t="s">
+      <c r="C39" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="4:4">
-      <c r="D37" t="s">
+      <c r="D39" s="17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39">
+      <c r="E39" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K39" s="17"/>
+    </row>
+    <row r="40" spans="4:11">
+      <c r="D40" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K40" s="17"/>
+    </row>
+    <row r="41" spans="4:11">
+      <c r="D41" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="17"/>
+      <c r="G41" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I41" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+    </row>
+    <row r="42" spans="4:11">
+      <c r="D42" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+    </row>
+    <row r="44" spans="4:12">
+      <c r="D44" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H44" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+    </row>
+    <row r="45" spans="4:12">
+      <c r="D45" s="17"/>
+      <c r="E45" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+    </row>
+    <row r="47" spans="4:6">
+      <c r="D47" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49">
         <v>4.3</v>
       </c>
-      <c r="C39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3">
-      <c r="C40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3">
-      <c r="C41" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3">
-      <c r="C42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
+      <c r="C49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7">
+      <c r="C51" s="2"/>
+      <c r="D51" s="18">
+        <v>1.1</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+    </row>
+    <row r="52" spans="4:5">
+      <c r="D52" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5">
+      <c r="C53" s="2"/>
+      <c r="D53" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5">
+      <c r="C54" s="2"/>
+      <c r="D54" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="E54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5">
+      <c r="C55" s="2"/>
+      <c r="D55" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5">
+      <c r="C56" s="2"/>
+      <c r="D56" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="E56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5">
+      <c r="C57" s="2"/>
+      <c r="D57" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="E57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4">
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="3:4">
+      <c r="C59" s="2">
+        <v>2</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4">
+      <c r="C60" s="2">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4">
+      <c r="C61" s="2">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
         <v>5</v>
       </c>
-      <c r="B44" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3">
-      <c r="C45" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3">
-      <c r="C46" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3">
-      <c r="C47" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
+      <c r="B63" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4">
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4">
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4">
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4">
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
         <v>6</v>
       </c>
-      <c r="B49" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3">
-      <c r="C50" t="s">
-        <v>45</v>
+      <c r="B72" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/foreign_matter_classification_2023_05_09/documentation/光伏板异物分类 2023-05-04.xlsx
+++ b/foreign_matter_classification_2023_05_09/documentation/光伏板异物分类 2023-05-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="132">
   <si>
     <t>光伏板异物分类</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>增加多线程并发，加快图片的读取速度。</t>
+  </si>
+  <si>
+    <t>考虑增加 XGBoost  人工智能算法，进一步提高准确度（得到 RegNet 输出结果后，同时使用异物和 OK 的概率，用 XGBoost 再次计算）</t>
   </si>
   <si>
     <t>以下部分的内容逐步添加。</t>
@@ -592,7 +595,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -608,6 +611,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,103 +958,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1060,7 +1069,7 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1081,10 +1090,10 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1094,7 +1103,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1140,6 +1149,9 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1155,7 +1167,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1167,7 +1179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -1176,7 +1188,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2576,10 +2588,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M144"/>
+  <dimension ref="A1:O144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13.8"/>
@@ -2677,14 +2689,14 @@
       <c r="G10" s="4">
         <v>46.7</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
     </row>
     <row r="11" spans="3:13">
       <c r="C11" s="6">
@@ -2700,14 +2712,14 @@
       <c r="G11" s="4">
         <v>94.83</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
     </row>
     <row r="12" spans="3:13">
       <c r="C12" s="7">
@@ -2723,14 +2735,14 @@
       <c r="G12" s="3">
         <v>154.8</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
     </row>
     <row r="13" spans="3:13">
       <c r="C13" s="6">
@@ -2746,14 +2758,14 @@
       <c r="G13" s="3">
         <v>4.1</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
     </row>
     <row r="14" spans="3:13">
       <c r="C14" s="6">
@@ -2769,14 +2781,14 @@
       <c r="G14" s="3">
         <v>362</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
     </row>
     <row r="15" spans="3:13">
       <c r="C15" s="6">
@@ -2792,14 +2804,14 @@
       <c r="G15" s="3">
         <v>1016.7</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
     </row>
     <row r="16" spans="3:5">
       <c r="C16" t="s">
@@ -2965,15 +2977,34 @@
         <v>36</v>
       </c>
     </row>
+    <row r="37" spans="3:15">
+      <c r="C37" s="15">
+        <v>15</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+    </row>
     <row r="40" spans="3:3">
-      <c r="C40" s="15"/>
+      <c r="C40" s="16"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="11"/>
       <c r="B41" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="16"/>
+        <v>38</v>
+      </c>
+      <c r="C41" s="17"/>
       <c r="D41" s="11"/>
     </row>
     <row r="42" spans="1:3">
@@ -2981,20 +3012,20 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="B44">
         <v>4.1</v>
       </c>
-      <c r="C44" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="17">
+      <c r="C44" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="18">
         <v>4000</v>
       </c>
     </row>
@@ -3003,180 +3034,180 @@
         <v>4.2</v>
       </c>
       <c r="C46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="4:11">
-      <c r="D47" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E47" s="18" t="s">
+      <c r="D47" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F47" s="18" t="s">
+      <c r="E47" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G47" s="18" t="s">
+      <c r="F47" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="H47" s="18" t="s">
+      <c r="G47" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="I47" s="18" t="s">
+      <c r="H47" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="J47" s="18" t="s">
+      <c r="I47" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="K47" s="18" t="s">
+      <c r="J47" s="19" t="s">
         <v>49</v>
       </c>
+      <c r="K47" s="19" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="48" spans="4:11">
-      <c r="D48" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F48" s="25" t="s">
+      <c r="E48" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="G48" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="H48" s="26" t="s">
+      <c r="F48" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="I48" s="26" t="s">
+      <c r="G48" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="J48" s="18" t="s">
+      <c r="I48" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="K48" s="18" t="s">
+      <c r="J48" s="19" t="s">
         <v>56</v>
       </c>
+      <c r="K48" s="19" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="49" spans="4:11">
-      <c r="D49" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E49" s="26" t="s">
+      <c r="D49" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F49" s="18"/>
-      <c r="G49" s="26" t="s">
+      <c r="E49" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="H49" s="18" t="s">
+      <c r="F49" s="19"/>
+      <c r="G49" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="I49" s="26" t="s">
+      <c r="H49" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
+      <c r="I49" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
     </row>
     <row r="50" spans="4:11">
-      <c r="D50" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E50" s="26" t="s">
+      <c r="D50" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F50" s="18"/>
-      <c r="G50" s="26" t="s">
+      <c r="E50" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="H50" s="18"/>
-      <c r="I50" s="26" t="s">
+      <c r="F50" s="19"/>
+      <c r="G50" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
     </row>
     <row r="51" spans="4:10">
-      <c r="D51" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E51" s="26" t="s">
+      <c r="D51" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18" t="s">
+      <c r="E51" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18" t="s">
+      <c r="F51" s="19"/>
+      <c r="G51" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="J51" s="18"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J51" s="19"/>
     </row>
     <row r="52" spans="4:10">
-      <c r="D52" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="J52" s="18"/>
+      <c r="D52" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="J52" s="19"/>
     </row>
     <row r="54" spans="4:12">
-      <c r="D54" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E54" s="26" t="s">
+      <c r="D54" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F54" s="26" t="s">
+      <c r="E54" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="G54" s="18" t="s">
+      <c r="F54" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="H54" s="26" t="s">
+      <c r="G54" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
+      <c r="H54" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
     </row>
     <row r="55" spans="4:12">
-      <c r="D55" s="18"/>
-      <c r="E55" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="F55" s="26" t="s">
+      <c r="D55" s="19"/>
+      <c r="E55" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="G55" s="26" t="s">
+      <c r="F55" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="H55" s="18" t="s">
+      <c r="G55" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="I55" s="18" t="s">
+      <c r="H55" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
+      <c r="I55" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
     </row>
     <row r="57" spans="4:6">
-      <c r="D57" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E57" s="26" t="s">
+      <c r="D57" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="F57" s="18" t="s">
+      <c r="E57" s="27" t="s">
         <v>83</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="2:3">
@@ -3184,7 +3215,7 @@
         <v>4.3</v>
       </c>
       <c r="C59" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="3:4">
@@ -3192,95 +3223,95 @@
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="3:7">
       <c r="C61" s="2"/>
-      <c r="D61" s="19">
+      <c r="D61" s="20">
         <v>1.1</v>
       </c>
-      <c r="E61" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="F61" s="25"/>
+      <c r="E61" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F61" s="26"/>
       <c r="G61" s="11"/>
     </row>
     <row r="62" spans="4:6">
-      <c r="D62" s="20">
+      <c r="D62" s="21">
         <v>1.2</v>
       </c>
-      <c r="E62" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="F62" s="27"/>
+      <c r="E62" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F62" s="28"/>
     </row>
     <row r="63" spans="3:6">
       <c r="C63" s="2"/>
-      <c r="D63" s="20">
+      <c r="D63" s="21">
         <v>1.3</v>
       </c>
-      <c r="E63" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="F63" s="27"/>
+      <c r="E63" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F63" s="28"/>
     </row>
     <row r="64" spans="3:6">
       <c r="C64" s="2"/>
-      <c r="D64" s="20">
+      <c r="D64" s="21">
         <v>1.4</v>
       </c>
-      <c r="E64" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="F64" s="27"/>
+      <c r="E64" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F64" s="28"/>
     </row>
     <row r="65" spans="3:6">
       <c r="C65" s="2"/>
-      <c r="D65" s="20">
+      <c r="D65" s="21">
         <v>1.5</v>
       </c>
-      <c r="E65" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="F65" s="27"/>
+      <c r="E65" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F65" s="28"/>
     </row>
     <row r="66" spans="3:6">
       <c r="C66" s="2"/>
-      <c r="D66" s="20">
+      <c r="D66" s="21">
         <v>1.6</v>
       </c>
-      <c r="E66" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="F66" s="27"/>
+      <c r="E66" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F66" s="28"/>
     </row>
     <row r="67" spans="3:7">
       <c r="C67" s="2"/>
-      <c r="D67" s="19">
+      <c r="D67" s="20">
         <v>1.7</v>
       </c>
-      <c r="E67" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
+      <c r="E67" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
     </row>
     <row r="68" spans="3:7">
       <c r="C68" s="2"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
     </row>
     <row r="69" spans="3:4">
       <c r="C69" s="2">
         <v>2</v>
       </c>
-      <c r="D69" s="28" t="s">
-        <v>94</v>
+      <c r="D69" s="29" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="3:4">
@@ -3288,7 +3319,7 @@
         <v>3</v>
       </c>
       <c r="D70" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="3:4">
@@ -3296,7 +3327,7 @@
         <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="3:3">
@@ -3307,25 +3338,25 @@
         <v>4.4</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="3:4">
       <c r="C74" s="2"/>
       <c r="D74" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="3:4">
       <c r="C75" s="2"/>
       <c r="D75" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="3:4">
       <c r="C76" s="2"/>
       <c r="D76" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="3:3">
@@ -3334,43 +3365,43 @@
     <row r="78" spans="3:4">
       <c r="C78" s="2"/>
       <c r="D78" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="3:7">
       <c r="C79" s="2"/>
-      <c r="D79" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
+      <c r="D79" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
     </row>
     <row r="80" spans="3:7">
       <c r="C80" s="2"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
     </row>
     <row r="81" spans="3:7">
       <c r="C81" s="2"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
     </row>
     <row r="82" spans="3:7">
       <c r="C82" s="2"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
     </row>
     <row r="83" spans="3:4">
       <c r="C83" s="2"/>
       <c r="D83" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="3:3">
@@ -3396,75 +3427,75 @@
         <v>4.5</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="3:4">
       <c r="C91" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="5:5">
       <c r="E92" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="5:5">
       <c r="E93" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="3:4">
       <c r="C95" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D95" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="4:4">
       <c r="D96" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="4:5">
-      <c r="D97" s="30">
+      <c r="D97" s="31">
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="4:5">
-      <c r="D98" s="30">
+      <c r="D98" s="31">
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="4:4">
-      <c r="D99" s="30"/>
+      <c r="D99" s="31"/>
     </row>
     <row r="100" spans="3:4">
       <c r="C100" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D100" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="4:4">
       <c r="D101" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="4:4">
       <c r="D102" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -3472,27 +3503,27 @@
         <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="3:3">
       <c r="C106" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="4:4">
       <c r="D107" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="4:4">
       <c r="D108" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="3:3">
       <c r="C109" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="3:4">
@@ -3500,7 +3531,7 @@
         <v>1</v>
       </c>
       <c r="D110" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="3:4">
@@ -3508,12 +3539,12 @@
         <v>2</v>
       </c>
       <c r="D111" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="3:3">
       <c r="C112" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="3:4">
@@ -3521,7 +3552,7 @@
         <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="3:4">
@@ -3529,7 +3560,7 @@
         <v>2</v>
       </c>
       <c r="D114" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="3:4">
@@ -3537,7 +3568,7 @@
         <v>3</v>
       </c>
       <c r="D115" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="3:4">
@@ -3545,7 +3576,7 @@
         <v>4</v>
       </c>
       <c r="D116" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -3553,12 +3584,12 @@
         <v>6</v>
       </c>
       <c r="B119" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120" spans="3:3">
       <c r="C120" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="144" spans="1:1">
